--- a/skill_recommendations_dynamic_professional_skills.xlsx
+++ b/skill_recommendations_dynamic_professional_skills.xlsx
@@ -148,43 +148,43 @@
     <t>Employee</t>
   </si>
   <si>
-    <t>['Team Coordination', 'Conflict Resolution', 'Team Management', 'Microsoft Excel', 'Financial Reporting']</t>
+    <t>['Team Coordination', 'Conflict Resolution', 'Budgeting', 'Financial Reporting', 'Team Management']</t>
   </si>
   <si>
     <t>['Python', 'Recruitment', 'Django', 'Policy Management', 'Employee Engagement']</t>
   </si>
   <si>
-    <t>['Data Entry', 'Tally', 'Invoice Management', 'Journal Entries', 'Billing']</t>
-  </si>
-  <si>
-    <t>['Data Entry', 'Microsoft Excel', 'Tally', 'Php', 'Accounts Payable']</t>
-  </si>
-  <si>
-    <t>['Data Entry', 'Tally', 'Accounting', 'Invoice Processing', 'Accounts Payable']</t>
-  </si>
-  <si>
-    <t>['Microsoft Excel', 'Billing', 'Invoice Management', 'Journal Entries', 'Accounts Payable']</t>
-  </si>
-  <si>
-    <t>['Python', 'Django', 'Policy Management', 'Recruitment', 'Employee Engagement']</t>
+    <t>['Data Entry', 'Tally', 'Journal Entries', 'Invoice Management', 'Billing']</t>
+  </si>
+  <si>
+    <t>['Data Entry', 'Microsoft Excel', 'Tally', 'Php', 'Ledger Management']</t>
+  </si>
+  <si>
+    <t>['Data Entry', 'Tally', 'Accounting', 'Invoice Processing', 'Ledger Management']</t>
+  </si>
+  <si>
+    <t>['Microsoft Excel', 'Billing', 'Journal Entries', 'Invoice Management', 'Ledger Management']</t>
+  </si>
+  <si>
+    <t>['Python', 'Django', 'Recruitment', 'Policy Management', 'Employee Engagement']</t>
   </si>
   <si>
     <t>['Microsoft Excel', 'Tally', 'Accounting', 'Invoice Processing', '']</t>
   </si>
   <si>
-    <t>['Ms Office', 'Accounting', 'Invoice Processing', 'Invoice Management', 'Journal Entries']</t>
+    <t>['Ms Office', 'Invoice Processing', 'Accounting', 'Journal Entries', 'Invoice Management']</t>
   </si>
   <si>
     <t>['Data Entry', 'Tally', 'Billing', 'Accounting', 'Invoice Processing']</t>
   </si>
   <si>
-    <t>['Microsoft Excel', 'Billing', 'Accounting', 'Invoice Processing', 'Invoice Management']</t>
-  </si>
-  <si>
-    <t>['Django', 'Policy Management', 'Employee Engagement', 'Conflict Resolution', 'Employee Management']</t>
-  </si>
-  <si>
-    <t>['Php', 'Angular', '', 'Data Entry', 'Accounts Payable']</t>
+    <t>['Microsoft Excel', 'Billing', 'Invoice Processing', 'Accounting', 'Journal Entries']</t>
+  </si>
+  <si>
+    <t>['Django', 'Employee Engagement', 'Policy Management', 'Conflict Resolution', 'Hr Policies']</t>
+  </si>
+  <si>
+    <t>['Php', 'Angular', '', 'Ledger Management', 'Accounts Payable']</t>
   </si>
   <si>
     <t>['Microsoft Excel', 'Css', '', 'Expresses']</t>
@@ -247,43 +247,43 @@
     <t>17, 3, 4, 16</t>
   </si>
   <si>
-    <t>Team Coordination, Conflict Resolution, Team Management, Microsoft Excel, Financial Reporting</t>
+    <t>Team Coordination, Conflict Resolution, Budgeting, Financial Reporting, Team Management</t>
   </si>
   <si>
     <t>Python, Recruitment, Django, Policy Management, Employee Engagement</t>
   </si>
   <si>
-    <t>Data Entry, Tally, Invoice Management, Journal Entries, Billing</t>
-  </si>
-  <si>
-    <t>Data Entry, Microsoft Excel, Tally, Php, Accounts Payable</t>
-  </si>
-  <si>
-    <t>Data Entry, Tally, Accounting, Invoice Processing, Accounts Payable</t>
-  </si>
-  <si>
-    <t>Microsoft Excel, Billing, Invoice Management, Journal Entries, Accounts Payable</t>
-  </si>
-  <si>
-    <t>Python, Django, Policy Management, Recruitment, Employee Engagement</t>
+    <t>Data Entry, Tally, Journal Entries, Invoice Management, Billing</t>
+  </si>
+  <si>
+    <t>Data Entry, Microsoft Excel, Tally, Php, Ledger Management</t>
+  </si>
+  <si>
+    <t>Data Entry, Tally, Accounting, Invoice Processing, Ledger Management</t>
+  </si>
+  <si>
+    <t>Microsoft Excel, Billing, Journal Entries, Invoice Management, Ledger Management</t>
+  </si>
+  <si>
+    <t>Python, Django, Recruitment, Policy Management, Employee Engagement</t>
   </si>
   <si>
     <t xml:space="preserve">Microsoft Excel, Tally, Accounting, Invoice Processing, </t>
   </si>
   <si>
-    <t>Ms Office, Accounting, Invoice Processing, Invoice Management, Journal Entries</t>
+    <t>Ms Office, Invoice Processing, Accounting, Journal Entries, Invoice Management</t>
   </si>
   <si>
     <t>Data Entry, Tally, Billing, Accounting, Invoice Processing</t>
   </si>
   <si>
-    <t>Microsoft Excel, Billing, Accounting, Invoice Processing, Invoice Management</t>
-  </si>
-  <si>
-    <t>Django, Policy Management, Employee Engagement, Conflict Resolution, Employee Management</t>
-  </si>
-  <si>
-    <t>Php, Angular, , Data Entry, Accounts Payable</t>
+    <t>Microsoft Excel, Billing, Invoice Processing, Accounting, Journal Entries</t>
+  </si>
+  <si>
+    <t>Django, Employee Engagement, Policy Management, Conflict Resolution, Hr Policies</t>
+  </si>
+  <si>
+    <t>Php, Angular, , Ledger Management, Accounts Payable</t>
   </si>
   <si>
     <t>Microsoft Excel, Css, , Expresses</t>
